--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>14/12/2025</t>
+    <t>15/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{0163830d-eaf2-410d-a305-5747bfb2fa3b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e3f899d4-b22d-4d47-9902-4d056b80f46a}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>15/12/2025</t>
+    <t>16/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e3f899d4-b22d-4d47-9902-4d056b80f46a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{e6045977-749a-4a09-9cbb-afde64343bd0}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>18/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{ea7cedd9-e064-41af-aeab-e45b6b556f9a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{4f3a57cf-a85c-432a-be77-d3a892a5578e}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>22/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{4f3a57cf-a85c-432a-be77-d3a892a5578e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6e7a0e64-7918-4ac4-9980-cb7116917f06}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/curva_historica/curva_historica_CCINFS.xlsx
+++ b/curva_historica/curva_historica_CCINFS.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">al </t>
   </si>
   <si>
-    <t>22/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>Fecha de Proceso</t>
@@ -7514,7 +7514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{6e7a0e64-7918-4ac4-9980-cb7116917f06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xr:uid="{d8c9bc3a-dcfc-4b08-9044-d9cfcafdbf44}">
   <dimension ref="A1:D2284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
